--- a/biology/Botanique/Sabline_de_Provence/Sabline_de_Provence.xlsx
+++ b/biology/Botanique/Sabline_de_Provence/Sabline_de_Provence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arenaria provincialis
 La Sabline de Provence ou Herbe à Gouffé (Arenaria provincialis) est une plante annuelle (thérophyte) à cycle hivernal, de petite taille (10 à 30 cm) poussant exclusivement dans les éboulis calcaires ou les lapiaz entre Toulon et Marseille (calanques, Etoile-Garlaban, Sainte-Baume, La Sainte-Victoire...) C'est une espèce rare (cotation UICN 1997) dans le monde et en France où elle est endémique et strictement protégée par la loi française, par la directive européenne "faune/flore/habitats" et par la convention de Berne.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette sabline a l'originalité de ne posséder que 2 styles au lieu de 3, ses tiges fines ramifiées sont érigées et portent de petites feuilles allongées opposées par deux, les fleurs blanches (avril-mai) ont 5 pétales et le fruit ovoïde n'a que 2 valves avec 2 dents à leur sommet.
 Pour ces raisons, certains préfèrent la classer dans un genre à part nommé Gouffeia DC. sous le nom de Gouffeia arenarioides DC. et d'autres dans le genre Arenaria sous le nom de Arenaria provincialis Chater &amp; G.Halliday.
